--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itga2b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.5816943761368</v>
+        <v>75.4398805</v>
       </c>
       <c r="H2">
-        <v>69.5816943761368</v>
+        <v>150.879761</v>
       </c>
       <c r="I2">
-        <v>0.6996482798324236</v>
+        <v>0.712088134965885</v>
       </c>
       <c r="J2">
-        <v>0.6996482798324236</v>
+        <v>0.6233963611410914</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N2">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O2">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P2">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q2">
-        <v>85.82961069284086</v>
+        <v>94.32116239124124</v>
       </c>
       <c r="R2">
-        <v>85.82961069284086</v>
+        <v>377.284649564965</v>
       </c>
       <c r="S2">
-        <v>0.1242793310301983</v>
+        <v>0.116688991505061</v>
       </c>
       <c r="T2">
-        <v>0.1242793310301983</v>
+        <v>0.07871899448693297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.5816943761368</v>
+        <v>75.4398805</v>
       </c>
       <c r="H3">
-        <v>69.5816943761368</v>
+        <v>150.879761</v>
       </c>
       <c r="I3">
-        <v>0.6996482798324236</v>
+        <v>0.712088134965885</v>
       </c>
       <c r="J3">
-        <v>0.6996482798324236</v>
+        <v>0.6233963611410914</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N3">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O3">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P3">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q3">
-        <v>166.8669099730481</v>
+        <v>195.903337840727</v>
       </c>
       <c r="R3">
-        <v>166.8669099730481</v>
+        <v>1175.420027044362</v>
       </c>
       <c r="S3">
-        <v>0.2416195037484485</v>
+        <v>0.2423609118628977</v>
       </c>
       <c r="T3">
-        <v>0.2416195037484485</v>
+        <v>0.2452468785449572</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.5816943761368</v>
+        <v>75.4398805</v>
       </c>
       <c r="H4">
-        <v>69.5816943761368</v>
+        <v>150.879761</v>
       </c>
       <c r="I4">
-        <v>0.6996482798324236</v>
+        <v>0.712088134965885</v>
       </c>
       <c r="J4">
-        <v>0.6996482798324236</v>
+        <v>0.6233963611410914</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N4">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O4">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P4">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q4">
-        <v>17.89787964513249</v>
+        <v>20.65239653905317</v>
       </c>
       <c r="R4">
-        <v>17.89787964513249</v>
+        <v>123.914379234319</v>
       </c>
       <c r="S4">
-        <v>0.0259157240863683</v>
+        <v>0.02555001723058188</v>
       </c>
       <c r="T4">
-        <v>0.0259157240863683</v>
+        <v>0.02585425976658627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.5816943761368</v>
+        <v>75.4398805</v>
       </c>
       <c r="H5">
-        <v>69.5816943761368</v>
+        <v>150.879761</v>
       </c>
       <c r="I5">
-        <v>0.6996482798324236</v>
+        <v>0.712088134965885</v>
       </c>
       <c r="J5">
-        <v>0.6996482798324236</v>
+        <v>0.6233963611410914</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N5">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O5">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P5">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q5">
-        <v>54.83626975298147</v>
+        <v>59.81645727483783</v>
       </c>
       <c r="R5">
-        <v>54.83626975298147</v>
+        <v>358.898743649027</v>
       </c>
       <c r="S5">
-        <v>0.0794016757862387</v>
+        <v>0.07400165453701571</v>
       </c>
       <c r="T5">
-        <v>0.0794016757862387</v>
+        <v>0.07488284576446876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.5816943761368</v>
+        <v>75.4398805</v>
       </c>
       <c r="H6">
-        <v>69.5816943761368</v>
+        <v>150.879761</v>
       </c>
       <c r="I6">
-        <v>0.6996482798324236</v>
+        <v>0.712088134965885</v>
       </c>
       <c r="J6">
-        <v>0.6996482798324236</v>
+        <v>0.6233963611410914</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N6">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O6">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P6">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q6">
-        <v>58.82613091614357</v>
+        <v>66.35646624851699</v>
       </c>
       <c r="R6">
-        <v>58.82613091614357</v>
+        <v>398.138797491102</v>
       </c>
       <c r="S6">
-        <v>0.08517890432378483</v>
+        <v>0.0820925965083112</v>
       </c>
       <c r="T6">
-        <v>0.08517890432378483</v>
+        <v>0.08307013243415705</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>69.5816943761368</v>
+        <v>75.4398805</v>
       </c>
       <c r="H7">
-        <v>69.5816943761368</v>
+        <v>150.879761</v>
       </c>
       <c r="I7">
-        <v>0.6996482798324236</v>
+        <v>0.712088134965885</v>
       </c>
       <c r="J7">
-        <v>0.6996482798324236</v>
+        <v>0.6233963611410914</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N7">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O7">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P7">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q7">
-        <v>98.93327561707285</v>
+        <v>138.5398711469138</v>
       </c>
       <c r="R7">
-        <v>98.93327561707285</v>
+        <v>554.159484587655</v>
       </c>
       <c r="S7">
-        <v>0.143253140857385</v>
+        <v>0.1713939633220175</v>
       </c>
       <c r="T7">
-        <v>0.143253140857385</v>
+        <v>0.1156232501439891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.98529618054065</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H8">
-        <v>1.98529618054065</v>
+        <v>0.072031</v>
       </c>
       <c r="I8">
-        <v>0.01996227700585444</v>
+        <v>0.0002266370700738657</v>
       </c>
       <c r="J8">
-        <v>0.01996227700585444</v>
+        <v>0.000297613563222399</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N8">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O8">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P8">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q8">
-        <v>2.448879691901064</v>
+        <v>0.03001969958583333</v>
       </c>
       <c r="R8">
-        <v>2.448879691901064</v>
+        <v>0.180118197515</v>
       </c>
       <c r="S8">
-        <v>0.003545922292157015</v>
+        <v>3.713873303878067E-05</v>
       </c>
       <c r="T8">
-        <v>0.003545922292157015</v>
+        <v>3.758097079626384E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.98529618054065</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H9">
-        <v>1.98529618054065</v>
+        <v>0.072031</v>
       </c>
       <c r="I9">
-        <v>0.01996227700585444</v>
+        <v>0.0002266370700738657</v>
       </c>
       <c r="J9">
-        <v>0.01996227700585444</v>
+        <v>0.000297613563222399</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N9">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O9">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P9">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q9">
-        <v>4.76102575538497</v>
+        <v>0.06235036974466666</v>
       </c>
       <c r="R9">
-        <v>4.76102575538497</v>
+        <v>0.561153327702</v>
       </c>
       <c r="S9">
-        <v>0.006893857389314045</v>
+        <v>7.713647267506998E-05</v>
       </c>
       <c r="T9">
-        <v>0.006893857389314045</v>
+        <v>0.0001170824886743545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.98529618054065</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H10">
-        <v>1.98529618054065</v>
+        <v>0.072031</v>
       </c>
       <c r="I10">
-        <v>0.01996227700585444</v>
+        <v>0.0002266370700738657</v>
       </c>
       <c r="J10">
-        <v>0.01996227700585444</v>
+        <v>0.000297613563222399</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N10">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O10">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P10">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q10">
-        <v>0.5106600581926009</v>
+        <v>0.006573060849888889</v>
       </c>
       <c r="R10">
-        <v>0.5106600581926009</v>
+        <v>0.059157547649</v>
       </c>
       <c r="S10">
-        <v>0.0007394241905994364</v>
+        <v>8.131831947674958E-06</v>
       </c>
       <c r="T10">
-        <v>0.0007394241905994364</v>
+        <v>1.234299532888958E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.98529618054065</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H11">
-        <v>1.98529618054065</v>
+        <v>0.072031</v>
       </c>
       <c r="I11">
-        <v>0.01996227700585444</v>
+        <v>0.0002266370700738657</v>
       </c>
       <c r="J11">
-        <v>0.01996227700585444</v>
+        <v>0.000297613563222399</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N11">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O11">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P11">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q11">
-        <v>1.564581573814432</v>
+        <v>0.01903784932411111</v>
       </c>
       <c r="R11">
-        <v>1.564581573814432</v>
+        <v>0.171340643917</v>
       </c>
       <c r="S11">
-        <v>0.002265478659010757</v>
+        <v>2.355258758200082E-05</v>
       </c>
       <c r="T11">
-        <v>0.002265478659010757</v>
+        <v>3.574956791759796E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.98529618054065</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H12">
-        <v>1.98529618054065</v>
+        <v>0.072031</v>
       </c>
       <c r="I12">
-        <v>0.01996227700585444</v>
+        <v>0.0002266370700738657</v>
       </c>
       <c r="J12">
-        <v>0.01996227700585444</v>
+        <v>0.000297613563222399</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N12">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O12">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P12">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q12">
-        <v>1.678419792316189</v>
+        <v>0.021119345138</v>
       </c>
       <c r="R12">
-        <v>1.678419792316189</v>
+        <v>0.190074106242</v>
       </c>
       <c r="S12">
-        <v>0.002430313819357675</v>
+        <v>2.612770053848889E-05</v>
       </c>
       <c r="T12">
-        <v>0.002430313819357675</v>
+        <v>3.965823295123569E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.98529618054065</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H13">
-        <v>1.98529618054065</v>
+        <v>0.072031</v>
       </c>
       <c r="I13">
-        <v>0.01996227700585444</v>
+        <v>0.0002266370700738657</v>
       </c>
       <c r="J13">
-        <v>0.01996227700585444</v>
+        <v>0.000297613563222399</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N13">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O13">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P13">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q13">
-        <v>2.822751816723653</v>
+        <v>0.04409323641749999</v>
       </c>
       <c r="R13">
-        <v>2.822751816723653</v>
+        <v>0.264559418505</v>
       </c>
       <c r="S13">
-        <v>0.00408728065541551</v>
+        <v>5.454974429185034E-05</v>
       </c>
       <c r="T13">
-        <v>0.00408728065541551</v>
+        <v>5.519930755405742E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.82720586787444</v>
+        <v>2.035881666666667</v>
       </c>
       <c r="H14">
-        <v>1.82720586787444</v>
+        <v>6.107645</v>
       </c>
       <c r="I14">
-        <v>0.01837266904492762</v>
+        <v>0.0192169866842234</v>
       </c>
       <c r="J14">
-        <v>0.01837266904492762</v>
+        <v>0.02523521804983228</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N14">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O14">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P14">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q14">
-        <v>2.253873949196648</v>
+        <v>2.545427219904167</v>
       </c>
       <c r="R14">
-        <v>2.253873949196648</v>
+        <v>15.272563319425</v>
       </c>
       <c r="S14">
-        <v>0.00326355839635557</v>
+        <v>0.003149063558060329</v>
       </c>
       <c r="T14">
-        <v>0.00326355839635557</v>
+        <v>0.003186561735626978</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.82720586787444</v>
+        <v>2.035881666666667</v>
       </c>
       <c r="H15">
-        <v>1.82720586787444</v>
+        <v>6.107645</v>
       </c>
       <c r="I15">
-        <v>0.01837266904492762</v>
+        <v>0.0192169866842234</v>
       </c>
       <c r="J15">
-        <v>0.01837266904492762</v>
+        <v>0.02523521804983228</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N15">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O15">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P15">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q15">
-        <v>4.381902449926479</v>
+        <v>5.286806014343333</v>
       </c>
       <c r="R15">
-        <v>4.381902449926479</v>
+        <v>47.58125412909</v>
       </c>
       <c r="S15">
-        <v>0.006344895435508179</v>
+        <v>0.006540547703787644</v>
       </c>
       <c r="T15">
-        <v>0.006344895435508179</v>
+        <v>0.00992764610430895</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.82720586787444</v>
+        <v>2.035881666666667</v>
       </c>
       <c r="H16">
-        <v>1.82720586787444</v>
+        <v>6.107645</v>
       </c>
       <c r="I16">
-        <v>0.01837266904492762</v>
+        <v>0.0192169866842234</v>
       </c>
       <c r="J16">
-        <v>0.01837266904492762</v>
+        <v>0.02523521804983228</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N16">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O16">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P16">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q16">
-        <v>0.469995894801208</v>
+        <v>0.5573422864394445</v>
       </c>
       <c r="R16">
-        <v>0.469995894801208</v>
+        <v>5.016080577955</v>
       </c>
       <c r="S16">
-        <v>0.0006805434036263863</v>
+        <v>0.0006895134419355169</v>
       </c>
       <c r="T16">
-        <v>0.0006805434036263863</v>
+        <v>0.001046585965841315</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.82720586787444</v>
+        <v>2.035881666666667</v>
       </c>
       <c r="H17">
-        <v>1.82720586787444</v>
+        <v>6.107645</v>
       </c>
       <c r="I17">
-        <v>0.01837266904492762</v>
+        <v>0.0192169866842234</v>
       </c>
       <c r="J17">
-        <v>0.01837266904492762</v>
+        <v>0.02523521804983228</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N17">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O17">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P17">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q17">
-        <v>1.439993014877721</v>
+        <v>1.614255323890555</v>
       </c>
       <c r="R17">
-        <v>1.439993014877721</v>
+        <v>14.528297915015</v>
       </c>
       <c r="S17">
-        <v>0.002085077249361088</v>
+        <v>0.001997068536911461</v>
       </c>
       <c r="T17">
-        <v>0.002085077249361088</v>
+        <v>0.003031273614750283</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.82720586787444</v>
+        <v>2.035881666666667</v>
       </c>
       <c r="H18">
-        <v>1.82720586787444</v>
+        <v>6.107645</v>
       </c>
       <c r="I18">
-        <v>0.01837266904492762</v>
+        <v>0.0192169866842234</v>
       </c>
       <c r="J18">
-        <v>0.01837266904492762</v>
+        <v>0.02523521804983228</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N18">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O18">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P18">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q18">
-        <v>1.54476622850378</v>
+        <v>1.79074929871</v>
       </c>
       <c r="R18">
-        <v>1.54476622850378</v>
+        <v>16.11674368839</v>
       </c>
       <c r="S18">
-        <v>0.002236786488098399</v>
+        <v>0.002215417244733504</v>
       </c>
       <c r="T18">
-        <v>0.002236786488098399</v>
+        <v>0.003362696730483402</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.82720586787444</v>
+        <v>2.035881666666667</v>
       </c>
       <c r="H19">
-        <v>1.82720586787444</v>
+        <v>6.107645</v>
       </c>
       <c r="I19">
-        <v>0.01837266904492762</v>
+        <v>0.0192169866842234</v>
       </c>
       <c r="J19">
-        <v>0.01837266904492762</v>
+        <v>0.02523521804983228</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N19">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O19">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P19">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q19">
-        <v>2.597974414913799</v>
+        <v>3.7387490794125</v>
       </c>
       <c r="R19">
-        <v>2.597974414913799</v>
+        <v>22.432494476475</v>
       </c>
       <c r="S19">
-        <v>0.003761808071977998</v>
+        <v>0.00462537619879494</v>
       </c>
       <c r="T19">
-        <v>0.003761808071977998</v>
+        <v>0.004680453898821355</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.7343428683338</v>
+        <v>1.829545333333333</v>
       </c>
       <c r="H20">
-        <v>25.7343428683338</v>
+        <v>5.488636</v>
       </c>
       <c r="I20">
-        <v>0.2587604237275141</v>
+        <v>0.0172693476661707</v>
       </c>
       <c r="J20">
-        <v>0.2587604237275141</v>
+        <v>0.02267763209160966</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N20">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O20">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P20">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q20">
-        <v>31.74353038724906</v>
+        <v>2.287448513223333</v>
       </c>
       <c r="R20">
-        <v>31.74353038724906</v>
+        <v>13.72469107934</v>
       </c>
       <c r="S20">
-        <v>0.04596391256139239</v>
+        <v>0.00282990638962448</v>
       </c>
       <c r="T20">
-        <v>0.04596391256139239</v>
+        <v>0.002863604131933784</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.7343428683338</v>
+        <v>1.829545333333333</v>
       </c>
       <c r="H21">
-        <v>25.7343428683338</v>
+        <v>5.488636</v>
       </c>
       <c r="I21">
-        <v>0.2587604237275141</v>
+        <v>0.0172693476661707</v>
       </c>
       <c r="J21">
-        <v>0.2587604237275141</v>
+        <v>0.02267763209160966</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N21">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O21">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P21">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q21">
-        <v>61.71465517083639</v>
+        <v>4.750988935234666</v>
       </c>
       <c r="R21">
-        <v>61.71465517083639</v>
+        <v>42.758900417112</v>
       </c>
       <c r="S21">
-        <v>0.08936142197870492</v>
+        <v>0.005877664072932562</v>
       </c>
       <c r="T21">
-        <v>0.08936142197870492</v>
+        <v>0.008921480505721903</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.7343428683338</v>
+        <v>1.829545333333333</v>
       </c>
       <c r="H22">
-        <v>25.7343428683338</v>
+        <v>5.488636</v>
       </c>
       <c r="I22">
-        <v>0.2587604237275141</v>
+        <v>0.0172693476661707</v>
       </c>
       <c r="J22">
-        <v>0.2587604237275141</v>
+        <v>0.02267763209160966</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N22">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O22">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P22">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q22">
-        <v>6.619415861220714</v>
+        <v>0.5008557206048888</v>
       </c>
       <c r="R22">
-        <v>6.619415861220714</v>
+        <v>4.507701485444</v>
       </c>
       <c r="S22">
-        <v>0.009584764143778336</v>
+        <v>0.0006196313472526952</v>
       </c>
       <c r="T22">
-        <v>0.009584764143778336</v>
+        <v>0.0009405146188443195</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.7343428683338</v>
+        <v>1.829545333333333</v>
       </c>
       <c r="H23">
-        <v>25.7343428683338</v>
+        <v>5.488636</v>
       </c>
       <c r="I23">
-        <v>0.2587604237275141</v>
+        <v>0.0172693476661707</v>
       </c>
       <c r="J23">
-        <v>0.2587604237275141</v>
+        <v>0.02267763209160966</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N23">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O23">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P23">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q23">
-        <v>20.28084225450585</v>
+        <v>1.450650763739111</v>
       </c>
       <c r="R23">
-        <v>20.28084225450585</v>
+        <v>13.055856873652</v>
       </c>
       <c r="S23">
-        <v>0.0293661999369782</v>
+        <v>0.001794665909063079</v>
       </c>
       <c r="T23">
-        <v>0.0293661999369782</v>
+        <v>0.002724054441240205</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.7343428683338</v>
+        <v>1.829545333333333</v>
       </c>
       <c r="H24">
-        <v>25.7343428683338</v>
+        <v>5.488636</v>
       </c>
       <c r="I24">
-        <v>0.2587604237275141</v>
+        <v>0.0172693476661707</v>
       </c>
       <c r="J24">
-        <v>0.2587604237275141</v>
+        <v>0.02267763209160966</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N24">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O24">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P24">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q24">
-        <v>21.75646678607914</v>
+        <v>1.609257097928</v>
       </c>
       <c r="R24">
-        <v>21.75646678607914</v>
+        <v>14.483313881352</v>
       </c>
       <c r="S24">
-        <v>0.03150287081495732</v>
+        <v>0.001990885004689224</v>
       </c>
       <c r="T24">
-        <v>0.03150287081495732</v>
+        <v>0.003021887868730664</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.7343428683338</v>
+        <v>1.829545333333333</v>
       </c>
       <c r="H25">
-        <v>25.7343428683338</v>
+        <v>5.488636</v>
       </c>
       <c r="I25">
-        <v>0.2587604237275141</v>
+        <v>0.0172693476661707</v>
       </c>
       <c r="J25">
-        <v>0.2587604237275141</v>
+        <v>0.02267763209160966</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N25">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O25">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P25">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q25">
-        <v>36.58983671846703</v>
+        <v>3.359827362629999</v>
       </c>
       <c r="R25">
-        <v>36.58983671846703</v>
+        <v>20.15896417578</v>
       </c>
       <c r="S25">
-        <v>0.05298125429170297</v>
+        <v>0.004156594942608658</v>
       </c>
       <c r="T25">
-        <v>0.05298125429170297</v>
+        <v>0.004206090525138781</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.323851832556186</v>
+        <v>26.255634</v>
       </c>
       <c r="H26">
-        <v>0.323851832556186</v>
+        <v>78.766902</v>
       </c>
       <c r="I26">
-        <v>0.003256350389280267</v>
+        <v>0.2478307935205024</v>
       </c>
       <c r="J26">
-        <v>0.003256350389280267</v>
+        <v>0.3254445775875597</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N26">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O26">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P26">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q26">
-        <v>0.3994739846403231</v>
+        <v>32.826959716605</v>
       </c>
       <c r="R26">
-        <v>0.3994739846403231</v>
+        <v>196.96175829963</v>
       </c>
       <c r="S26">
-        <v>0.0005784292760308203</v>
+        <v>0.04061172197622967</v>
       </c>
       <c r="T26">
-        <v>0.0005784292760308203</v>
+        <v>0.0410953151250736</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.323851832556186</v>
+        <v>26.255634</v>
       </c>
       <c r="H27">
-        <v>0.323851832556186</v>
+        <v>78.766902</v>
       </c>
       <c r="I27">
-        <v>0.003256350389280267</v>
+        <v>0.2478307935205024</v>
       </c>
       <c r="J27">
-        <v>0.003256350389280267</v>
+        <v>0.3254445775875597</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N27">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O27">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P27">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q27">
-        <v>0.7766432690706784</v>
+        <v>68.18099795007601</v>
       </c>
       <c r="R27">
-        <v>0.7766432690706784</v>
+        <v>613.6289815506841</v>
       </c>
       <c r="S27">
-        <v>0.001124561851674123</v>
+        <v>0.08434980749709035</v>
       </c>
       <c r="T27">
-        <v>0.001124561851674123</v>
+        <v>0.1280313325002984</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.323851832556186</v>
+        <v>26.255634</v>
       </c>
       <c r="H28">
-        <v>0.323851832556186</v>
+        <v>78.766902</v>
       </c>
       <c r="I28">
-        <v>0.003256350389280267</v>
+        <v>0.2478307935205024</v>
       </c>
       <c r="J28">
-        <v>0.003256350389280267</v>
+        <v>0.3254445775875597</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N28">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O28">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P28">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q28">
-        <v>0.08330152310769338</v>
+        <v>7.187733611962001</v>
       </c>
       <c r="R28">
-        <v>0.08330152310769338</v>
+        <v>64.68960250765799</v>
       </c>
       <c r="S28">
-        <v>0.0001206187175037981</v>
+        <v>0.008892271523413289</v>
       </c>
       <c r="T28">
-        <v>0.0001206187175037981</v>
+        <v>0.01349723734860134</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.323851832556186</v>
+        <v>26.255634</v>
       </c>
       <c r="H29">
-        <v>0.323851832556186</v>
+        <v>78.766902</v>
       </c>
       <c r="I29">
-        <v>0.003256350389280267</v>
+        <v>0.2478307935205024</v>
       </c>
       <c r="J29">
-        <v>0.003256350389280267</v>
+        <v>0.3254445775875597</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N29">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O29">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P29">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q29">
-        <v>0.255222679028909</v>
+        <v>20.818153461746</v>
       </c>
       <c r="R29">
-        <v>0.255222679028909</v>
+        <v>187.363381155714</v>
       </c>
       <c r="S29">
-        <v>0.0003695566548351308</v>
+        <v>0.02575508264383218</v>
       </c>
       <c r="T29">
-        <v>0.0003695566548351308</v>
+        <v>0.03909265056306012</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.323851832556186</v>
+        <v>26.255634</v>
       </c>
       <c r="H30">
-        <v>0.323851832556186</v>
+        <v>78.766902</v>
       </c>
       <c r="I30">
-        <v>0.003256350389280267</v>
+        <v>0.2478307935205024</v>
       </c>
       <c r="J30">
-        <v>0.003256350389280267</v>
+        <v>0.3254445775875597</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N30">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O30">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P30">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q30">
-        <v>0.2737925609629416</v>
+        <v>23.094298132596</v>
       </c>
       <c r="R30">
-        <v>0.2737925609629416</v>
+        <v>207.848683193364</v>
       </c>
       <c r="S30">
-        <v>0.0003964454230054825</v>
+        <v>0.02857100453694246</v>
       </c>
       <c r="T30">
-        <v>0.0003964454230054825</v>
+        <v>0.04336683023091659</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>26.255634</v>
+      </c>
+      <c r="H31">
+        <v>78.766902</v>
+      </c>
+      <c r="I31">
+        <v>0.2478307935205024</v>
+      </c>
+      <c r="J31">
+        <v>0.3254445775875597</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.8364275</v>
+      </c>
+      <c r="N31">
+        <v>3.672855</v>
+      </c>
+      <c r="O31">
+        <v>0.2406920645156217</v>
+      </c>
+      <c r="P31">
+        <v>0.1854730912005122</v>
+      </c>
+      <c r="Q31">
+        <v>48.216568307535</v>
+      </c>
+      <c r="R31">
+        <v>289.29940984521</v>
+      </c>
+      <c r="S31">
+        <v>0.05965090534299448</v>
+      </c>
+      <c r="T31">
+        <v>0.06036121181960964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3568225</v>
+      </c>
+      <c r="H32">
+        <v>0.7136450000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.00336810009314456</v>
+      </c>
+      <c r="J32">
+        <v>0.002948597566684469</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.2502825</v>
+      </c>
+      <c r="N32">
+        <v>2.500565</v>
+      </c>
+      <c r="O32">
+        <v>0.1638687485091313</v>
+      </c>
+      <c r="P32">
+        <v>0.1262743888059313</v>
+      </c>
+      <c r="Q32">
+        <v>0.44612892735625</v>
+      </c>
+      <c r="R32">
+        <v>1.784515709425</v>
+      </c>
+      <c r="S32">
+        <v>0.0005519263471170878</v>
+      </c>
+      <c r="T32">
+        <v>0.0003723323555677377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3568225</v>
+      </c>
+      <c r="H33">
+        <v>0.7136450000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.00336810009314456</v>
+      </c>
+      <c r="J33">
+        <v>0.002948597566684469</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.596814</v>
+      </c>
+      <c r="N33">
+        <v>7.790442000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.3403524085884521</v>
+      </c>
+      <c r="P33">
+        <v>0.3934044114342388</v>
+      </c>
+      <c r="Q33">
+        <v>0.9266016635150002</v>
+      </c>
+      <c r="R33">
+        <v>5.559609981090001</v>
+      </c>
+      <c r="S33">
+        <v>0.001146340979068741</v>
+      </c>
+      <c r="T33">
+        <v>0.001159991290277932</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3568225</v>
+      </c>
+      <c r="H34">
+        <v>0.7136450000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.00336810009314456</v>
+      </c>
+      <c r="J34">
+        <v>0.002948597566684469</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.2737596666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.821279</v>
+      </c>
+      <c r="O34">
+        <v>0.03588041420154535</v>
+      </c>
+      <c r="P34">
+        <v>0.04147322855600493</v>
+      </c>
+      <c r="Q34">
+        <v>0.09768360865916668</v>
+      </c>
+      <c r="R34">
+        <v>0.5861016519550001</v>
+      </c>
+      <c r="S34">
+        <v>0.0001208488264142903</v>
+      </c>
+      <c r="T34">
+        <v>0.000122287860802785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3568225</v>
+      </c>
+      <c r="H35">
+        <v>0.7136450000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.00336810009314456</v>
+      </c>
+      <c r="J35">
+        <v>0.002948597566684469</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.7929023333333333</v>
+      </c>
+      <c r="N35">
+        <v>2.378707</v>
+      </c>
+      <c r="O35">
+        <v>0.103922044060685</v>
+      </c>
+      <c r="P35">
+        <v>0.1201207617372036</v>
+      </c>
+      <c r="Q35">
+        <v>0.2829253928358333</v>
+      </c>
+      <c r="R35">
+        <v>1.697552357015</v>
+      </c>
+      <c r="S35">
+        <v>0.0003500198462805663</v>
+      </c>
+      <c r="T35">
+        <v>0.0003541877857666034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.323851832556186</v>
-      </c>
-      <c r="H31">
-        <v>0.323851832556186</v>
-      </c>
-      <c r="I31">
-        <v>0.003256350389280267</v>
-      </c>
-      <c r="J31">
-        <v>0.003256350389280267</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1.42182906731576</v>
-      </c>
-      <c r="N31">
-        <v>1.42182906731576</v>
-      </c>
-      <c r="O31">
-        <v>0.2047502223427123</v>
-      </c>
-      <c r="P31">
-        <v>0.2047502223427123</v>
-      </c>
-      <c r="Q31">
-        <v>0.4604619490318617</v>
-      </c>
-      <c r="R31">
-        <v>0.4604619490318617</v>
-      </c>
-      <c r="S31">
-        <v>0.0006667384662309125</v>
-      </c>
-      <c r="T31">
-        <v>0.0006667384662309125</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3568225</v>
+      </c>
+      <c r="H36">
+        <v>0.7136450000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.00336810009314456</v>
+      </c>
+      <c r="J36">
+        <v>0.002948597566684469</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.879594</v>
+      </c>
+      <c r="N36">
+        <v>2.638782</v>
+      </c>
+      <c r="O36">
+        <v>0.1152843201245645</v>
+      </c>
+      <c r="P36">
+        <v>0.1332541182661091</v>
+      </c>
+      <c r="Q36">
+        <v>0.313858930065</v>
+      </c>
+      <c r="R36">
+        <v>1.88315358039</v>
+      </c>
+      <c r="S36">
+        <v>0.0003882891293496531</v>
+      </c>
+      <c r="T36">
+        <v>0.0003929127688701337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3568225</v>
+      </c>
+      <c r="H37">
+        <v>0.7136450000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.00336810009314456</v>
+      </c>
+      <c r="J37">
+        <v>0.002948597566684469</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.8364275</v>
+      </c>
+      <c r="N37">
+        <v>3.672855</v>
+      </c>
+      <c r="O37">
+        <v>0.2406920645156217</v>
+      </c>
+      <c r="P37">
+        <v>0.1854730912005122</v>
+      </c>
+      <c r="Q37">
+        <v>0.65527865161875</v>
+      </c>
+      <c r="R37">
+        <v>2.621114606475</v>
+      </c>
+      <c r="S37">
+        <v>0.0008106749649142219</v>
+      </c>
+      <c r="T37">
+        <v>0.000546885505399277</v>
       </c>
     </row>
   </sheetData>
